--- a/KmsReportWS/client-update/Template/oped.xlsx
+++ b/KmsReportWS/client-update/Template/oped.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PAOdocs\C#\KmsReportClient-master\KmsReportClient\bin\Debug\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0F453C-B5CA-4FAC-993A-579B37946B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1440" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Форма №ОПЭД-норматив</t>
   </si>
@@ -96,8 +112,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -559,6 +575,30 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -576,22 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -866,21 +890,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.140625" customWidth="1"/>
@@ -891,7 +915,7 @@
     <col min="7" max="7" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -900,7 +924,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -909,7 +933,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -918,7 +942,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -927,7 +951,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -936,7 +960,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -945,7 +969,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -954,7 +978,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
@@ -965,70 +989,70 @@
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-    </row>
-    <row r="13" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A13" s="44" t="s">
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="45" t="s">
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
+    <row r="14" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="11" t="s">
         <v>9</v>
       </c>
@@ -1041,9 +1065,9 @@
       <c r="F14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="45"/>
-    </row>
-    <row r="15" spans="1:7" ht="46.5" customHeight="1">
+      <c r="G14" s="51"/>
+    </row>
+    <row r="15" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13">
         <v>1</v>
@@ -1064,7 +1088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>1</v>
       </c>
@@ -1077,7 +1101,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="41"/>
     </row>
-    <row r="17" spans="1:7" ht="30">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>2</v>
       </c>
@@ -1090,7 +1114,7 @@
       <c r="F17" s="35"/>
       <c r="G17" s="41"/>
     </row>
-    <row r="18" spans="1:7" ht="30">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>3</v>
       </c>
@@ -1103,7 +1127,7 @@
       <c r="F18" s="35"/>
       <c r="G18" s="42"/>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>4</v>
       </c>
@@ -1116,7 +1140,7 @@
       <c r="F19" s="36"/>
       <c r="G19" s="42"/>
     </row>
-    <row r="20" spans="1:7" ht="30">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>5</v>
       </c>
@@ -1129,7 +1153,7 @@
       <c r="F20" s="36"/>
       <c r="G20" s="42"/>
     </row>
-    <row r="21" spans="1:7" ht="26.25">
+    <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>6</v>
       </c>
@@ -1154,7 +1178,7 @@
       </c>
       <c r="G21" s="43"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>7</v>
       </c>
@@ -1179,7 +1203,7 @@
       </c>
       <c r="G22" s="43"/>
     </row>
-    <row r="23" spans="1:7" ht="26.25">
+    <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>8</v>
       </c>
@@ -1204,7 +1228,7 @@
       </c>
       <c r="G23" s="43"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>9</v>
       </c>
@@ -1229,7 +1253,7 @@
       </c>
       <c r="G24" s="42"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
@@ -1238,18 +1262,18 @@
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="26.25">
+    <row r="26" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
       <c r="G26" s="28"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
@@ -1260,7 +1284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="3"/>
@@ -1269,16 +1293,16 @@
       <c r="F28" s="3"/>
       <c r="G28" s="29"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
       <c r="G29" s="30"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
@@ -1287,7 +1311,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="28"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -1296,7 +1320,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="3"/>
@@ -1305,7 +1329,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="30"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
@@ -1314,7 +1338,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="30"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
@@ -1323,7 +1347,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="30"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="32"/>
       <c r="C35" s="33"/>
@@ -1334,6 +1358,484 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="E12:G12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0235BCCB-04E0-41E2-B05A-B914DBCB06C9}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="59.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="51"/>
+    </row>
+    <row r="15" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14">
+        <v>3</v>
+      </c>
+      <c r="E15" s="14">
+        <v>4</v>
+      </c>
+      <c r="F15" s="15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>2</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>3</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>4</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>5</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>6</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="37" t="e">
+        <f>C19*100/C16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" s="37" t="e">
+        <f t="shared" ref="D21:F21" si="0">D19*100/D16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="43"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>7</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="38" t="e">
+        <f>IF(C21&lt;C17,"НЕ ВЫПОЛНЕН!!","ВЫПОЛНЕН")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="38" t="e">
+        <f t="shared" ref="D22:F22" si="1">IF(D21&lt;D17,"НЕ ВЫПОЛНЕН!!","ВЫПОЛНЕН")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="43"/>
+    </row>
+    <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>8</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="37" t="e">
+        <f>C20*100/C16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" s="37" t="e">
+        <f t="shared" ref="D23:F23" si="2">D20*100/D16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="37" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="37" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="43"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>9</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="39" t="e">
+        <f>IF(C23&lt;C18,"НЕ ВЫПОЛНЕН","ВЫПОЛНЕН")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="39" t="e">
+        <f t="shared" ref="D24:F24" si="3">IF(D23&lt;D18,"НЕ ВЫПОЛНЕН","ВЫПОЛНЕН")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="42"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="28"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="E10:G10"/>
@@ -1343,7 +1845,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
